--- a/database/CFTCopi.xlsx
+++ b/database/CFTCopi.xlsx
@@ -89,45 +89,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,21 +148,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,14 +172,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,31 +203,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,13 +241,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,7 +385,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,151 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,26 +432,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -466,39 +446,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,6 +479,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,137 +552,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -703,6 +703,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1058,7 +1061,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D684" sqref="D684"/>
+      <selection pane="bottomRight" activeCell="E681" sqref="E681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -29121,20 +29124,46 @@
       </c>
       <c r="N678" s="3"/>
     </row>
-    <row r="679" spans="1:14">
-      <c r="A679" s="3"/>
-      <c r="B679" s="3"/>
-      <c r="C679" s="3"/>
-      <c r="D679" s="3"/>
-      <c r="E679" s="3"/>
-      <c r="F679" s="3"/>
-      <c r="G679" s="3"/>
-      <c r="H679" s="6"/>
-      <c r="I679" s="3"/>
-      <c r="J679" s="3"/>
-      <c r="K679" s="3"/>
-      <c r="L679" s="3"/>
-      <c r="M679" s="3"/>
+    <row r="679" ht="15" spans="1:14">
+      <c r="A679" s="5">
+        <v>43613</v>
+      </c>
+      <c r="B679" s="10">
+        <v>1818382</v>
+      </c>
+      <c r="C679" s="10">
+        <v>233812</v>
+      </c>
+      <c r="D679" s="10">
+        <v>256106</v>
+      </c>
+      <c r="E679" s="10">
+        <v>444957</v>
+      </c>
+      <c r="F679" s="10">
+        <v>85887</v>
+      </c>
+      <c r="G679" s="10">
+        <v>109093</v>
+      </c>
+      <c r="H679" s="9">
+        <v>328319</v>
+      </c>
+      <c r="I679" s="10">
+        <v>50850</v>
+      </c>
+      <c r="J679" s="10">
+        <v>91224</v>
+      </c>
+      <c r="K679" s="10">
+        <v>778621</v>
+      </c>
+      <c r="L679" s="10">
+        <v>64252</v>
+      </c>
+      <c r="M679" s="10">
+        <v>192389</v>
+      </c>
       <c r="N679" s="3"/>
     </row>
     <row r="680" spans="1:14">

--- a/database/CFTCopi.xlsx
+++ b/database/CFTCopi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="24345" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,8 +49,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -89,7 +89,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,23 +147,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,30 +172,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,15 +188,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,32 +218,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,13 +241,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,19 +271,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,25 +295,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,13 +313,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,19 +343,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,13 +367,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,37 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,6 +419,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -432,6 +432,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -450,6 +459,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -461,6 +479,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,44 +524,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -703,9 +703,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1057,11 +1055,11 @@
   <dimension ref="A1:N712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B652" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B672" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E681" sqref="E681"/>
+      <selection pane="bottomRight" activeCell="O699" sqref="O699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -29128,362 +29126,883 @@
       <c r="A679" s="5">
         <v>43613</v>
       </c>
-      <c r="B679" s="10">
+      <c r="B679" s="7">
         <v>1818382</v>
       </c>
-      <c r="C679" s="10">
+      <c r="C679" s="7">
         <v>233812</v>
       </c>
-      <c r="D679" s="10">
+      <c r="D679" s="7">
         <v>256106</v>
       </c>
-      <c r="E679" s="10">
+      <c r="E679" s="7">
         <v>444957</v>
       </c>
-      <c r="F679" s="10">
+      <c r="F679" s="7">
         <v>85887</v>
       </c>
-      <c r="G679" s="10">
+      <c r="G679" s="7">
         <v>109093</v>
       </c>
       <c r="H679" s="9">
         <v>328319</v>
       </c>
-      <c r="I679" s="10">
+      <c r="I679" s="7">
         <v>50850</v>
       </c>
-      <c r="J679" s="10">
+      <c r="J679" s="7">
         <v>91224</v>
       </c>
-      <c r="K679" s="10">
+      <c r="K679" s="7">
         <v>778621</v>
       </c>
-      <c r="L679" s="10">
+      <c r="L679" s="7">
         <v>64252</v>
       </c>
-      <c r="M679" s="10">
+      <c r="M679" s="7">
         <v>192389</v>
       </c>
       <c r="N679" s="3"/>
     </row>
-    <row r="680" spans="1:14">
-      <c r="A680" s="3"/>
-      <c r="B680" s="3"/>
-      <c r="C680" s="3"/>
-      <c r="D680" s="3"/>
-      <c r="E680" s="3"/>
-      <c r="F680" s="3"/>
-      <c r="G680" s="3"/>
-      <c r="H680" s="6"/>
-      <c r="I680" s="3"/>
-      <c r="J680" s="3"/>
-      <c r="K680" s="3"/>
-      <c r="L680" s="3"/>
-      <c r="M680" s="3"/>
+    <row r="680" ht="15" spans="1:14">
+      <c r="A680" s="10">
+        <v>43620</v>
+      </c>
+      <c r="B680" s="7">
+        <v>1797358</v>
+      </c>
+      <c r="C680" s="7">
+        <v>247479</v>
+      </c>
+      <c r="D680" s="7">
+        <v>152217</v>
+      </c>
+      <c r="E680" s="7">
+        <v>442184</v>
+      </c>
+      <c r="F680" s="7">
+        <v>81054</v>
+      </c>
+      <c r="G680" s="7">
+        <v>93134</v>
+      </c>
+      <c r="H680" s="9">
+        <v>305542</v>
+      </c>
+      <c r="I680" s="7">
+        <v>47118</v>
+      </c>
+      <c r="J680" s="7">
+        <v>72278</v>
+      </c>
+      <c r="K680" s="7">
+        <v>771623</v>
+      </c>
+      <c r="L680" s="7">
+        <v>67402</v>
+      </c>
+      <c r="M680" s="7">
+        <v>158222</v>
+      </c>
       <c r="N680" s="3"/>
     </row>
-    <row r="681" spans="1:14">
-      <c r="A681" s="3"/>
-      <c r="B681" s="3"/>
-      <c r="C681" s="3"/>
-      <c r="D681" s="3"/>
-      <c r="E681" s="3"/>
-      <c r="F681" s="3"/>
-      <c r="G681" s="3"/>
-      <c r="H681" s="6"/>
-      <c r="I681" s="3"/>
-      <c r="J681" s="3"/>
-      <c r="K681" s="3"/>
-      <c r="L681" s="3"/>
-      <c r="M681" s="3"/>
+    <row r="681" ht="15" spans="1:14">
+      <c r="A681" s="10">
+        <v>43627</v>
+      </c>
+      <c r="B681" s="7">
+        <v>1790591</v>
+      </c>
+      <c r="C681" s="7">
+        <v>251997</v>
+      </c>
+      <c r="D681" s="7">
+        <v>130255</v>
+      </c>
+      <c r="E681" s="7">
+        <v>420761</v>
+      </c>
+      <c r="F681" s="7">
+        <v>87280</v>
+      </c>
+      <c r="G681" s="7">
+        <v>82006</v>
+      </c>
+      <c r="H681" s="9">
+        <v>299794</v>
+      </c>
+      <c r="I681" s="7">
+        <v>45971</v>
+      </c>
+      <c r="J681" s="7">
+        <v>70368</v>
+      </c>
+      <c r="K681" s="7">
+        <v>757333</v>
+      </c>
+      <c r="L681" s="7">
+        <v>67825</v>
+      </c>
+      <c r="M681" s="7">
+        <v>156714</v>
+      </c>
       <c r="N681" s="3"/>
     </row>
-    <row r="682" spans="1:14">
-      <c r="A682" s="3"/>
-      <c r="B682" s="3"/>
-      <c r="C682" s="3"/>
-      <c r="D682" s="3"/>
-      <c r="E682" s="3"/>
-      <c r="F682" s="3"/>
-      <c r="G682" s="3"/>
-      <c r="H682" s="6"/>
-      <c r="I682" s="3"/>
-      <c r="J682" s="3"/>
-      <c r="K682" s="3"/>
-      <c r="L682" s="3"/>
-      <c r="M682" s="3"/>
+    <row r="682" ht="15" spans="1:14">
+      <c r="A682" s="10">
+        <v>43634</v>
+      </c>
+      <c r="B682" s="7">
+        <v>1841025</v>
+      </c>
+      <c r="C682" s="7">
+        <v>270804</v>
+      </c>
+      <c r="D682" s="7">
+        <v>115774</v>
+      </c>
+      <c r="E682" s="7">
+        <v>425681</v>
+      </c>
+      <c r="F682" s="7">
+        <v>95128</v>
+      </c>
+      <c r="G682" s="7">
+        <v>69574</v>
+      </c>
+      <c r="H682" s="9">
+        <v>286494</v>
+      </c>
+      <c r="I682" s="7">
+        <v>45174</v>
+      </c>
+      <c r="J682" s="7">
+        <v>66967</v>
+      </c>
+      <c r="K682" s="7">
+        <v>777993</v>
+      </c>
+      <c r="L682" s="7">
+        <v>74092</v>
+      </c>
+      <c r="M682" s="7">
+        <v>128367</v>
+      </c>
       <c r="N682" s="3"/>
     </row>
-    <row r="683" spans="1:14">
-      <c r="A683" s="3"/>
-      <c r="B683" s="3"/>
-      <c r="C683" s="3"/>
-      <c r="D683" s="3"/>
-      <c r="E683" s="3"/>
-      <c r="F683" s="3"/>
-      <c r="G683" s="3"/>
-      <c r="H683" s="6"/>
-      <c r="I683" s="3"/>
-      <c r="J683" s="3"/>
-      <c r="K683" s="3"/>
-      <c r="L683" s="3"/>
-      <c r="M683" s="3"/>
+    <row r="683" ht="15" spans="1:14">
+      <c r="A683" s="10">
+        <v>43641</v>
+      </c>
+      <c r="B683" s="7">
+        <v>1761307</v>
+      </c>
+      <c r="C683" s="7">
+        <v>278396</v>
+      </c>
+      <c r="D683" s="7">
+        <v>99813</v>
+      </c>
+      <c r="E683" s="7">
+        <v>380979</v>
+      </c>
+      <c r="F683" s="7">
+        <v>92717</v>
+      </c>
+      <c r="G683" s="7">
+        <v>62685</v>
+      </c>
+      <c r="H683" s="9">
+        <v>261016</v>
+      </c>
+      <c r="I683" s="7">
+        <v>40732</v>
+      </c>
+      <c r="J683" s="7">
+        <v>58890</v>
+      </c>
+      <c r="K683" s="7">
+        <v>654165</v>
+      </c>
+      <c r="L683" s="7">
+        <v>65754</v>
+      </c>
+      <c r="M683" s="7">
+        <v>102618</v>
+      </c>
       <c r="N683" s="3"/>
     </row>
-    <row r="684" spans="1:14">
-      <c r="A684" s="3"/>
-      <c r="B684" s="3"/>
-      <c r="C684" s="3"/>
-      <c r="D684" s="3"/>
-      <c r="E684" s="3"/>
-      <c r="F684" s="3"/>
-      <c r="G684" s="3"/>
-      <c r="H684" s="6"/>
-      <c r="I684" s="3"/>
-      <c r="J684" s="3"/>
-      <c r="K684" s="3"/>
-      <c r="L684" s="3"/>
-      <c r="M684" s="3"/>
+    <row r="684" ht="15" spans="1:14">
+      <c r="A684" s="10">
+        <v>43648</v>
+      </c>
+      <c r="B684" s="7">
+        <v>1746923</v>
+      </c>
+      <c r="C684" s="7">
+        <v>277037</v>
+      </c>
+      <c r="D684" s="7">
+        <v>107612</v>
+      </c>
+      <c r="E684" s="7">
+        <v>362642</v>
+      </c>
+      <c r="F684" s="7">
+        <v>94344</v>
+      </c>
+      <c r="G684" s="7">
+        <v>59871</v>
+      </c>
+      <c r="H684" s="9">
+        <v>269299</v>
+      </c>
+      <c r="I684" s="7">
+        <v>42314</v>
+      </c>
+      <c r="J684" s="7">
+        <v>62135</v>
+      </c>
+      <c r="K684" s="7">
+        <v>648855</v>
+      </c>
+      <c r="L684" s="7">
+        <v>63061</v>
+      </c>
+      <c r="M684" s="7">
+        <v>103648</v>
+      </c>
       <c r="N684" s="3"/>
     </row>
-    <row r="685" spans="1:14">
-      <c r="A685" s="3"/>
-      <c r="B685" s="3"/>
-      <c r="C685" s="3"/>
-      <c r="D685" s="3"/>
-      <c r="E685" s="3"/>
-      <c r="F685" s="3"/>
-      <c r="G685" s="3"/>
-      <c r="H685" s="6"/>
-      <c r="I685" s="3"/>
-      <c r="J685" s="3"/>
-      <c r="K685" s="3"/>
-      <c r="L685" s="3"/>
-      <c r="M685" s="3"/>
+    <row r="685" ht="15" spans="1:14">
+      <c r="A685" s="10">
+        <v>43655</v>
+      </c>
+      <c r="B685" s="7">
+        <v>1780296</v>
+      </c>
+      <c r="C685" s="7">
+        <v>279679</v>
+      </c>
+      <c r="D685" s="7">
+        <v>105361</v>
+      </c>
+      <c r="E685" s="7">
+        <v>363931</v>
+      </c>
+      <c r="F685" s="7">
+        <v>90130</v>
+      </c>
+      <c r="G685" s="7">
+        <v>62547</v>
+      </c>
+      <c r="H685" s="9">
+        <v>277477</v>
+      </c>
+      <c r="I685" s="7">
+        <v>45801</v>
+      </c>
+      <c r="J685" s="7">
+        <v>64048</v>
+      </c>
+      <c r="K685" s="7">
+        <v>676785</v>
+      </c>
+      <c r="L685" s="7">
+        <v>67359</v>
+      </c>
+      <c r="M685" s="7">
+        <v>113109</v>
+      </c>
       <c r="N685" s="3"/>
     </row>
-    <row r="686" spans="1:14">
-      <c r="A686" s="3"/>
-      <c r="B686" s="3"/>
-      <c r="C686" s="3"/>
-      <c r="D686" s="3"/>
-      <c r="E686" s="3"/>
-      <c r="F686" s="3"/>
-      <c r="G686" s="3"/>
-      <c r="H686" s="6"/>
-      <c r="I686" s="3"/>
-      <c r="J686" s="3"/>
-      <c r="K686" s="3"/>
-      <c r="L686" s="3"/>
-      <c r="M686" s="3"/>
+    <row r="686" ht="15" spans="1:14">
+      <c r="A686" s="10">
+        <v>43662</v>
+      </c>
+      <c r="B686" s="7">
+        <v>1797311</v>
+      </c>
+      <c r="C686" s="7">
+        <v>275757</v>
+      </c>
+      <c r="D686" s="7">
+        <v>97025</v>
+      </c>
+      <c r="E686" s="7">
+        <v>372617</v>
+      </c>
+      <c r="F686" s="7">
+        <v>80977</v>
+      </c>
+      <c r="G686" s="7">
+        <v>65890</v>
+      </c>
+      <c r="H686" s="9">
+        <v>280333</v>
+      </c>
+      <c r="I686" s="7">
+        <v>48571</v>
+      </c>
+      <c r="J686" s="7">
+        <v>65761</v>
+      </c>
+      <c r="K686" s="7">
+        <v>670495</v>
+      </c>
+      <c r="L686" s="7">
+        <v>68002</v>
+      </c>
+      <c r="M686" s="7">
+        <v>110483</v>
+      </c>
       <c r="N686" s="3"/>
     </row>
-    <row r="687" spans="1:14">
-      <c r="A687" s="3"/>
-      <c r="B687" s="3"/>
-      <c r="C687" s="3"/>
-      <c r="D687" s="3"/>
-      <c r="E687" s="3"/>
-      <c r="F687" s="3"/>
-      <c r="G687" s="3"/>
-      <c r="H687" s="6"/>
-      <c r="I687" s="3"/>
-      <c r="J687" s="3"/>
-      <c r="K687" s="3"/>
-      <c r="L687" s="3"/>
-      <c r="M687" s="3"/>
+    <row r="687" ht="15" spans="1:14">
+      <c r="A687" s="10">
+        <v>43669</v>
+      </c>
+      <c r="B687" s="7">
+        <v>1783259</v>
+      </c>
+      <c r="C687" s="7">
+        <v>260840</v>
+      </c>
+      <c r="D687" s="7">
+        <v>117300</v>
+      </c>
+      <c r="E687" s="7">
+        <v>382577</v>
+      </c>
+      <c r="F687" s="7">
+        <v>74318</v>
+      </c>
+      <c r="G687" s="7">
+        <v>67751</v>
+      </c>
+      <c r="H687" s="9">
+        <v>286207</v>
+      </c>
+      <c r="I687" s="7">
+        <v>48086</v>
+      </c>
+      <c r="J687" s="7">
+        <v>68930</v>
+      </c>
+      <c r="K687" s="7">
+        <v>666535</v>
+      </c>
+      <c r="L687" s="7">
+        <v>70547</v>
+      </c>
+      <c r="M687" s="7">
+        <v>113203</v>
+      </c>
       <c r="N687" s="3"/>
     </row>
-    <row r="688" spans="1:14">
-      <c r="A688" s="3"/>
-      <c r="B688" s="3"/>
-      <c r="C688" s="3"/>
-      <c r="D688" s="3"/>
-      <c r="E688" s="3"/>
-      <c r="F688" s="3"/>
-      <c r="G688" s="3"/>
-      <c r="H688" s="6"/>
-      <c r="I688" s="3"/>
-      <c r="J688" s="3"/>
-      <c r="K688" s="3"/>
-      <c r="L688" s="3"/>
-      <c r="M688" s="3"/>
+    <row r="688" ht="15" spans="1:14">
+      <c r="A688" s="10">
+        <v>43676</v>
+      </c>
+      <c r="B688" s="7">
+        <v>1781850</v>
+      </c>
+      <c r="C688" s="7">
+        <v>240328</v>
+      </c>
+      <c r="D688" s="7">
+        <v>134421</v>
+      </c>
+      <c r="E688" s="7">
+        <v>379136</v>
+      </c>
+      <c r="F688" s="7">
+        <v>80081</v>
+      </c>
+      <c r="G688" s="7">
+        <v>65232</v>
+      </c>
+      <c r="H688" s="9">
+        <v>287743</v>
+      </c>
+      <c r="I688" s="7">
+        <v>52083</v>
+      </c>
+      <c r="J688" s="7">
+        <v>68366</v>
+      </c>
+      <c r="K688" s="7">
+        <v>605996</v>
+      </c>
+      <c r="L688" s="7">
+        <v>71714</v>
+      </c>
+      <c r="M688" s="7">
+        <v>126874</v>
+      </c>
       <c r="N688" s="3"/>
     </row>
-    <row r="689" spans="1:14">
-      <c r="A689" s="3"/>
-      <c r="B689" s="3"/>
-      <c r="C689" s="3"/>
-      <c r="D689" s="3"/>
-      <c r="E689" s="3"/>
-      <c r="F689" s="3"/>
-      <c r="G689" s="3"/>
-      <c r="H689" s="6"/>
-      <c r="I689" s="3"/>
-      <c r="J689" s="3"/>
-      <c r="K689" s="3"/>
-      <c r="L689" s="3"/>
-      <c r="M689" s="3"/>
+    <row r="689" ht="15" spans="1:14">
+      <c r="A689" s="10">
+        <v>43683</v>
+      </c>
+      <c r="B689" s="7">
+        <v>1814664</v>
+      </c>
+      <c r="C689" s="7">
+        <v>222989</v>
+      </c>
+      <c r="D689" s="7">
+        <v>154903</v>
+      </c>
+      <c r="E689" s="7">
+        <v>399820</v>
+      </c>
+      <c r="F689" s="7">
+        <v>77040</v>
+      </c>
+      <c r="G689" s="7">
+        <v>69919</v>
+      </c>
+      <c r="H689" s="9">
+        <v>291051</v>
+      </c>
+      <c r="I689" s="7">
+        <v>50666</v>
+      </c>
+      <c r="J689" s="7">
+        <v>73608</v>
+      </c>
+      <c r="K689" s="7">
+        <v>633067</v>
+      </c>
+      <c r="L689" s="7">
+        <v>71331</v>
+      </c>
+      <c r="M689" s="7">
+        <v>147649</v>
+      </c>
       <c r="N689" s="3"/>
     </row>
-    <row r="690" spans="1:14">
-      <c r="A690" s="3"/>
-      <c r="B690" s="3"/>
-      <c r="C690" s="3"/>
-      <c r="D690" s="3"/>
-      <c r="E690" s="3"/>
-      <c r="F690" s="3"/>
-      <c r="G690" s="3"/>
-      <c r="H690" s="6"/>
-      <c r="I690" s="3"/>
-      <c r="J690" s="3"/>
-      <c r="K690" s="3"/>
-      <c r="L690" s="3"/>
-      <c r="M690" s="3"/>
+    <row r="690" ht="15" spans="1:14">
+      <c r="A690" s="10">
+        <v>43690</v>
+      </c>
+      <c r="B690" s="7">
+        <v>1765396</v>
+      </c>
+      <c r="C690" s="7">
+        <v>207309</v>
+      </c>
+      <c r="D690" s="7">
+        <v>185782</v>
+      </c>
+      <c r="E690" s="7">
+        <v>385557</v>
+      </c>
+      <c r="F690" s="7">
+        <v>75298</v>
+      </c>
+      <c r="G690" s="7">
+        <v>71298</v>
+      </c>
+      <c r="H690" s="9">
+        <v>290450</v>
+      </c>
+      <c r="I690" s="7">
+        <v>42995</v>
+      </c>
+      <c r="J690" s="7">
+        <v>79430</v>
+      </c>
+      <c r="K690" s="7">
+        <v>622488</v>
+      </c>
+      <c r="L690" s="7">
+        <v>72877</v>
+      </c>
+      <c r="M690" s="7">
+        <v>140080</v>
+      </c>
       <c r="N690" s="3"/>
     </row>
-    <row r="691" spans="1:14">
-      <c r="A691" s="3"/>
-      <c r="B691" s="3"/>
-      <c r="C691" s="3"/>
-      <c r="D691" s="3"/>
-      <c r="E691" s="3"/>
-      <c r="F691" s="3"/>
-      <c r="G691" s="3"/>
-      <c r="H691" s="6"/>
-      <c r="I691" s="3"/>
-      <c r="J691" s="3"/>
-      <c r="K691" s="3"/>
-      <c r="L691" s="3"/>
-      <c r="M691" s="3"/>
+    <row r="691" ht="15" spans="1:14">
+      <c r="A691" s="10">
+        <v>43697</v>
+      </c>
+      <c r="B691" s="7">
+        <v>1743824</v>
+      </c>
+      <c r="C691" s="7">
+        <v>178428</v>
+      </c>
+      <c r="D691" s="7">
+        <v>260694</v>
+      </c>
+      <c r="E691" s="7">
+        <v>387336</v>
+      </c>
+      <c r="F691" s="7">
+        <v>71652</v>
+      </c>
+      <c r="G691" s="7">
+        <v>75900</v>
+      </c>
+      <c r="H691" s="9">
+        <v>293109</v>
+      </c>
+      <c r="I691" s="7">
+        <v>42073</v>
+      </c>
+      <c r="J691" s="7">
+        <v>82477</v>
+      </c>
+      <c r="K691" s="7">
+        <v>642876</v>
+      </c>
+      <c r="L691" s="7">
+        <v>73564</v>
+      </c>
+      <c r="M691" s="7">
+        <v>150384</v>
+      </c>
       <c r="N691" s="3"/>
     </row>
-    <row r="692" spans="1:14">
-      <c r="A692" s="3"/>
-      <c r="B692" s="3"/>
-      <c r="C692" s="3"/>
-      <c r="D692" s="3"/>
-      <c r="E692" s="3"/>
-      <c r="F692" s="3"/>
-      <c r="G692" s="3"/>
-      <c r="H692" s="6"/>
-      <c r="I692" s="3"/>
-      <c r="J692" s="3"/>
-      <c r="K692" s="3"/>
-      <c r="L692" s="3"/>
-      <c r="M692" s="3"/>
+    <row r="692" ht="15" spans="1:14">
+      <c r="A692" s="10">
+        <v>43704</v>
+      </c>
+      <c r="B692" s="7">
+        <v>1639672</v>
+      </c>
+      <c r="C692" s="7">
+        <v>169261</v>
+      </c>
+      <c r="D692" s="7">
+        <v>265631</v>
+      </c>
+      <c r="E692" s="7">
+        <v>358513</v>
+      </c>
+      <c r="F692" s="7">
+        <v>77602</v>
+      </c>
+      <c r="G692" s="7">
+        <v>76799</v>
+      </c>
+      <c r="H692" s="9">
+        <v>287854</v>
+      </c>
+      <c r="I692" s="7">
+        <v>44919</v>
+      </c>
+      <c r="J692" s="7">
+        <v>82249</v>
+      </c>
+      <c r="K692" s="7">
+        <v>644246</v>
+      </c>
+      <c r="L692" s="7">
+        <v>73400</v>
+      </c>
+      <c r="M692" s="7">
+        <v>148951</v>
+      </c>
       <c r="N692" s="3"/>
     </row>
-    <row r="693" spans="1:14">
-      <c r="A693" s="3"/>
-      <c r="B693" s="3"/>
-      <c r="C693" s="3"/>
-      <c r="D693" s="3"/>
-      <c r="E693" s="3"/>
-      <c r="F693" s="3"/>
-      <c r="G693" s="3"/>
-      <c r="H693" s="6"/>
-      <c r="I693" s="3"/>
-      <c r="J693" s="3"/>
-      <c r="K693" s="3"/>
-      <c r="L693" s="3"/>
-      <c r="M693" s="3"/>
+    <row r="693" ht="15" spans="1:14">
+      <c r="A693" s="10">
+        <v>43711</v>
+      </c>
+      <c r="B693" s="7">
+        <v>1571335</v>
+      </c>
+      <c r="C693" s="7">
+        <v>165073</v>
+      </c>
+      <c r="D693" s="7">
+        <v>288873</v>
+      </c>
+      <c r="E693" s="7">
+        <v>353963</v>
+      </c>
+      <c r="F693" s="7">
+        <v>69985</v>
+      </c>
+      <c r="G693" s="7">
+        <v>89355</v>
+      </c>
+      <c r="H693" s="9">
+        <v>285852</v>
+      </c>
+      <c r="I693" s="7">
+        <v>43097</v>
+      </c>
+      <c r="J693" s="7">
+        <v>88141</v>
+      </c>
+      <c r="K693" s="7">
+        <v>642132</v>
+      </c>
+      <c r="L693" s="7">
+        <v>75721</v>
+      </c>
+      <c r="M693" s="7">
+        <v>147279</v>
+      </c>
       <c r="N693" s="3"/>
     </row>
-    <row r="694" spans="1:14">
-      <c r="A694" s="3"/>
-      <c r="B694" s="3"/>
-      <c r="C694" s="3"/>
-      <c r="D694" s="3"/>
-      <c r="E694" s="3"/>
-      <c r="F694" s="3"/>
-      <c r="G694" s="3"/>
-      <c r="H694" s="6"/>
-      <c r="I694" s="3"/>
-      <c r="J694" s="3"/>
-      <c r="K694" s="3"/>
-      <c r="L694" s="3"/>
-      <c r="M694" s="3"/>
+    <row r="694" ht="15" spans="1:14">
+      <c r="A694" s="10">
+        <v>43718</v>
+      </c>
+      <c r="B694" s="7">
+        <v>1625371</v>
+      </c>
+      <c r="C694" s="7">
+        <v>172377</v>
+      </c>
+      <c r="D694" s="7">
+        <v>315844</v>
+      </c>
+      <c r="E694" s="7">
+        <v>363718</v>
+      </c>
+      <c r="F694" s="7">
+        <v>79924</v>
+      </c>
+      <c r="G694" s="7">
+        <v>88829</v>
+      </c>
+      <c r="H694" s="9">
+        <v>295271</v>
+      </c>
+      <c r="I694" s="7">
+        <v>46181</v>
+      </c>
+      <c r="J694" s="7">
+        <v>87890</v>
+      </c>
+      <c r="K694" s="7">
+        <v>669501</v>
+      </c>
+      <c r="L694" s="7">
+        <v>66899</v>
+      </c>
+      <c r="M694" s="7">
+        <v>156912</v>
+      </c>
       <c r="N694" s="3"/>
     </row>
-    <row r="695" spans="1:14">
-      <c r="A695" s="3"/>
-      <c r="B695" s="3"/>
-      <c r="C695" s="3"/>
-      <c r="D695" s="3"/>
-      <c r="E695" s="3"/>
-      <c r="F695" s="3"/>
-      <c r="G695" s="3"/>
-      <c r="H695" s="6"/>
-      <c r="I695" s="3"/>
-      <c r="J695" s="3"/>
-      <c r="K695" s="3"/>
-      <c r="L695" s="3"/>
-      <c r="M695" s="3"/>
+    <row r="695" ht="15" spans="1:14">
+      <c r="A695" s="10">
+        <v>43725</v>
+      </c>
+      <c r="B695" s="7">
+        <v>1625789</v>
+      </c>
+      <c r="C695" s="7">
+        <v>160496</v>
+      </c>
+      <c r="D695" s="7">
+        <v>337139</v>
+      </c>
+      <c r="E695" s="7">
+        <v>352925</v>
+      </c>
+      <c r="F695" s="7">
+        <v>80041</v>
+      </c>
+      <c r="G695" s="7">
+        <v>87134</v>
+      </c>
+      <c r="H695" s="9">
+        <v>292374</v>
+      </c>
+      <c r="I695" s="7">
+        <v>46906</v>
+      </c>
+      <c r="J695" s="7">
+        <v>84511</v>
+      </c>
+      <c r="K695" s="7">
+        <v>669738</v>
+      </c>
+      <c r="L695" s="7">
+        <v>77648</v>
+      </c>
+      <c r="M695" s="7">
+        <v>123260</v>
+      </c>
       <c r="N695" s="3"/>
     </row>
-    <row r="696" spans="1:14">
-      <c r="A696" s="3"/>
-      <c r="B696" s="3"/>
-      <c r="C696" s="3"/>
-      <c r="D696" s="3"/>
-      <c r="E696" s="3"/>
-      <c r="F696" s="3"/>
-      <c r="G696" s="3"/>
-      <c r="H696" s="6"/>
-      <c r="I696" s="3"/>
-      <c r="J696" s="3"/>
-      <c r="K696" s="3"/>
-      <c r="L696" s="3"/>
-      <c r="M696" s="3"/>
+    <row r="696" ht="15" spans="1:14">
+      <c r="A696" s="10">
+        <v>43732</v>
+      </c>
+      <c r="B696" s="7">
+        <v>1615504</v>
+      </c>
+      <c r="C696" s="7">
+        <v>157849</v>
+      </c>
+      <c r="D696" s="7">
+        <v>320400</v>
+      </c>
+      <c r="E696" s="7">
+        <v>355668</v>
+      </c>
+      <c r="F696" s="7">
+        <v>73203</v>
+      </c>
+      <c r="G696" s="7">
+        <v>88621</v>
+      </c>
+      <c r="H696" s="9">
+        <v>299357</v>
+      </c>
+      <c r="I696" s="7">
+        <v>48555</v>
+      </c>
+      <c r="J696" s="7">
+        <v>85358</v>
+      </c>
+      <c r="K696" s="7">
+        <v>690291</v>
+      </c>
+      <c r="L696" s="7">
+        <v>77243</v>
+      </c>
+      <c r="M696" s="7">
+        <v>120296</v>
+      </c>
       <c r="N696" s="3"/>
     </row>
-    <row r="697" spans="1:14">
-      <c r="A697" s="3"/>
-      <c r="B697" s="3"/>
-      <c r="C697" s="3"/>
-      <c r="D697" s="3"/>
-      <c r="E697" s="3"/>
-      <c r="F697" s="3"/>
-      <c r="G697" s="3"/>
-      <c r="H697" s="6"/>
-      <c r="I697" s="3"/>
-      <c r="J697" s="3"/>
-      <c r="K697" s="3"/>
-      <c r="L697" s="3"/>
-      <c r="M697" s="3"/>
+    <row r="697" ht="15" spans="1:14">
+      <c r="A697" s="10">
+        <v>43739</v>
+      </c>
+      <c r="B697" s="7">
+        <v>1602769</v>
+      </c>
+      <c r="C697" s="7">
+        <v>164794</v>
+      </c>
+      <c r="D697" s="7">
+        <v>292825</v>
+      </c>
+      <c r="E697" s="7">
+        <v>369530</v>
+      </c>
+      <c r="F697" s="7">
+        <v>72057</v>
+      </c>
+      <c r="G697" s="7">
+        <v>88071</v>
+      </c>
+      <c r="H697" s="9">
+        <v>307958</v>
+      </c>
+      <c r="I697" s="7">
+        <v>51678</v>
+      </c>
+      <c r="J697" s="7">
+        <v>85352</v>
+      </c>
+      <c r="K697" s="7">
+        <v>713462</v>
+      </c>
+      <c r="L697" s="7">
+        <v>88430</v>
+      </c>
+      <c r="M697" s="7">
+        <v>99247</v>
+      </c>
       <c r="N697" s="3"/>
     </row>
-    <row r="698" spans="1:14">
-      <c r="A698" s="3"/>
-      <c r="B698" s="3"/>
-      <c r="C698" s="3"/>
-      <c r="D698" s="3"/>
-      <c r="E698" s="3"/>
-      <c r="F698" s="3"/>
-      <c r="G698" s="3"/>
-      <c r="H698" s="6"/>
-      <c r="I698" s="3"/>
-      <c r="J698" s="3"/>
-      <c r="K698" s="3"/>
-      <c r="L698" s="3"/>
-      <c r="M698" s="3"/>
+    <row r="698" ht="15" spans="1:14">
+      <c r="A698" s="10">
+        <v>43746</v>
+      </c>
+      <c r="B698" s="7">
+        <v>1621187</v>
+      </c>
+      <c r="C698" s="7">
+        <v>169885</v>
+      </c>
+      <c r="D698" s="7">
+        <v>266744</v>
+      </c>
+      <c r="E698" s="7">
+        <v>388627</v>
+      </c>
+      <c r="F698" s="7">
+        <v>75725</v>
+      </c>
+      <c r="G698" s="7">
+        <v>89171</v>
+      </c>
+      <c r="H698" s="9">
+        <v>313449</v>
+      </c>
+      <c r="I698" s="7">
+        <v>53364</v>
+      </c>
+      <c r="J698" s="7">
+        <v>89324</v>
+      </c>
+      <c r="K698" s="7">
+        <v>711318</v>
+      </c>
+      <c r="L698" s="7">
+        <v>99108</v>
+      </c>
+      <c r="M698" s="7">
+        <v>94644</v>
+      </c>
       <c r="N698" s="3"/>
     </row>
-    <row r="699" spans="1:14">
-      <c r="A699" s="3"/>
-      <c r="B699" s="3"/>
-      <c r="C699" s="3"/>
-      <c r="D699" s="3"/>
-      <c r="E699" s="3"/>
-      <c r="F699" s="3"/>
-      <c r="G699" s="3"/>
-      <c r="H699" s="6"/>
-      <c r="I699" s="3"/>
-      <c r="J699" s="3"/>
-      <c r="K699" s="3"/>
-      <c r="L699" s="3"/>
-      <c r="M699" s="3"/>
+    <row r="699" ht="15" spans="1:14">
+      <c r="A699" s="10">
+        <f>A698+7</f>
+        <v>43753</v>
+      </c>
+      <c r="B699" s="7">
+        <v>1570763</v>
+      </c>
+      <c r="C699" s="7">
+        <v>155973</v>
+      </c>
+      <c r="D699" s="7">
+        <v>220722</v>
+      </c>
+      <c r="E699" s="7">
+        <v>402973</v>
+      </c>
+      <c r="F699" s="7">
+        <v>76361</v>
+      </c>
+      <c r="G699" s="7">
+        <v>80023</v>
+      </c>
+      <c r="H699" s="9">
+        <v>319437</v>
+      </c>
+      <c r="I699" s="7">
+        <v>58043</v>
+      </c>
+      <c r="J699" s="7">
+        <v>82785</v>
+      </c>
+      <c r="K699" s="7">
+        <v>752145</v>
+      </c>
+      <c r="L699" s="7">
+        <v>120425</v>
+      </c>
+      <c r="M699" s="7">
+        <v>72472</v>
+      </c>
       <c r="N699" s="3"/>
     </row>
     <row r="700" spans="1:14">

--- a/database/CFTCopi.xlsx
+++ b/database/CFTCopi.xlsx
@@ -48,9 +48,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -89,14 +89,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,31 +149,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,6 +158,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,37 +179,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -195,18 +188,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,9 +211,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -241,7 +241,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,13 +277,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,13 +289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,7 +301,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,55 +367,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,13 +397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,37 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +432,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -469,21 +484,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -498,26 +498,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1055,11 +1055,11 @@
   <dimension ref="A1:N712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B672" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B687" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O699" sqref="O699"/>
+      <selection pane="bottomRight" activeCell="K714" sqref="K714"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -30005,180 +30005,261 @@
       </c>
       <c r="N699" s="3"/>
     </row>
-    <row r="700" spans="1:14">
-      <c r="A700" s="3"/>
-      <c r="B700" s="3"/>
-      <c r="C700" s="3"/>
-      <c r="D700" s="3"/>
-      <c r="E700" s="3"/>
-      <c r="F700" s="3"/>
-      <c r="G700" s="3"/>
-      <c r="H700" s="6"/>
-      <c r="I700" s="3"/>
-      <c r="J700" s="3"/>
-      <c r="K700" s="3"/>
-      <c r="L700" s="3"/>
-      <c r="M700" s="3"/>
+    <row r="700" ht="15" spans="1:14">
+      <c r="A700" s="10">
+        <f>A699+7</f>
+        <v>43760</v>
+      </c>
+      <c r="B700" s="7">
+        <v>1608763</v>
+      </c>
+      <c r="C700" s="7">
+        <v>153476</v>
+      </c>
+      <c r="D700" s="7">
+        <v>228662</v>
+      </c>
+      <c r="E700" s="7">
+        <v>411525</v>
+      </c>
+      <c r="F700" s="7">
+        <v>85511</v>
+      </c>
+      <c r="G700" s="7">
+        <v>63882</v>
+      </c>
+      <c r="H700" s="9">
+        <v>298578</v>
+      </c>
+      <c r="I700" s="7">
+        <v>52366</v>
+      </c>
+      <c r="J700" s="7">
+        <v>79443</v>
+      </c>
+      <c r="K700" s="7">
+        <v>795241</v>
+      </c>
+      <c r="L700" s="7">
+        <v>127694</v>
+      </c>
+      <c r="M700" s="7">
+        <v>60522</v>
+      </c>
       <c r="N700" s="3"/>
     </row>
-    <row r="701" spans="1:14">
-      <c r="A701" s="3"/>
-      <c r="B701" s="3"/>
-      <c r="C701" s="3"/>
-      <c r="D701" s="3"/>
-      <c r="E701" s="3"/>
-      <c r="F701" s="3"/>
-      <c r="G701" s="3"/>
-      <c r="H701" s="6"/>
-      <c r="I701" s="3"/>
-      <c r="J701" s="3"/>
-      <c r="K701" s="3"/>
-      <c r="L701" s="3"/>
-      <c r="M701" s="3"/>
+    <row r="701" ht="15" spans="1:14">
+      <c r="A701" s="10">
+        <f>A700+7</f>
+        <v>43767</v>
+      </c>
+      <c r="B701" s="7">
+        <v>1591878</v>
+      </c>
+      <c r="C701" s="7">
+        <v>138111</v>
+      </c>
+      <c r="D701" s="7">
+        <v>226229</v>
+      </c>
+      <c r="E701" s="7">
+        <v>407645</v>
+      </c>
+      <c r="F701" s="7">
+        <v>72383</v>
+      </c>
+      <c r="G701" s="7">
+        <v>64614</v>
+      </c>
+      <c r="H701" s="9">
+        <v>313557</v>
+      </c>
+      <c r="I701" s="7">
+        <v>52700</v>
+      </c>
+      <c r="J701" s="7">
+        <v>83133</v>
+      </c>
+      <c r="K701" s="7">
+        <v>714564</v>
+      </c>
+      <c r="L701" s="7">
+        <v>121711</v>
+      </c>
+      <c r="M701" s="7">
+        <v>55862</v>
+      </c>
       <c r="N701" s="3"/>
     </row>
-    <row r="702" spans="1:14">
-      <c r="A702" s="3"/>
-      <c r="B702" s="3"/>
-      <c r="C702" s="3"/>
-      <c r="D702" s="3"/>
-      <c r="E702" s="3"/>
-      <c r="F702" s="3"/>
-      <c r="G702" s="3"/>
-      <c r="H702" s="6"/>
-      <c r="I702" s="3"/>
-      <c r="J702" s="3"/>
-      <c r="K702" s="3"/>
-      <c r="L702" s="3"/>
-      <c r="M702" s="3"/>
+    <row r="702" ht="15" spans="1:14">
+      <c r="A702" s="10">
+        <f>A701+7</f>
+        <v>43774</v>
+      </c>
+      <c r="B702" s="7">
+        <v>1609336</v>
+      </c>
+      <c r="C702" s="7">
+        <v>136563</v>
+      </c>
+      <c r="D702" s="7">
+        <v>246283</v>
+      </c>
+      <c r="E702" s="7">
+        <v>411973</v>
+      </c>
+      <c r="F702" s="7">
+        <v>71060</v>
+      </c>
+      <c r="G702" s="7">
+        <v>68727</v>
+      </c>
+      <c r="H702" s="9">
+        <v>314020</v>
+      </c>
+      <c r="I702" s="7">
+        <v>51863</v>
+      </c>
+      <c r="J702" s="7">
+        <v>86780</v>
+      </c>
+      <c r="K702" s="7">
+        <v>704165</v>
+      </c>
+      <c r="L702" s="7">
+        <v>116541</v>
+      </c>
+      <c r="M702" s="7">
+        <v>63038</v>
+      </c>
       <c r="N702" s="3"/>
     </row>
-    <row r="703" spans="1:14">
+    <row r="703" ht="15" spans="1:14">
       <c r="A703" s="3"/>
-      <c r="B703" s="3"/>
-      <c r="C703" s="3"/>
-      <c r="D703" s="3"/>
-      <c r="E703" s="3"/>
-      <c r="F703" s="3"/>
-      <c r="G703" s="3"/>
-      <c r="H703" s="6"/>
-      <c r="I703" s="3"/>
-      <c r="J703" s="3"/>
-      <c r="K703" s="3"/>
-      <c r="L703" s="3"/>
-      <c r="M703" s="3"/>
+      <c r="B703" s="7"/>
+      <c r="C703" s="7"/>
+      <c r="D703" s="7"/>
+      <c r="E703" s="7"/>
+      <c r="F703" s="7"/>
+      <c r="G703" s="7"/>
+      <c r="H703" s="9"/>
+      <c r="I703" s="7"/>
+      <c r="J703" s="7"/>
+      <c r="K703" s="7"/>
+      <c r="L703" s="7"/>
+      <c r="M703" s="7"/>
       <c r="N703" s="3"/>
     </row>
-    <row r="704" spans="1:14">
+    <row r="704" ht="15" spans="1:14">
       <c r="A704" s="3"/>
-      <c r="B704" s="3"/>
-      <c r="C704" s="3"/>
-      <c r="D704" s="3"/>
-      <c r="E704" s="3"/>
-      <c r="F704" s="3"/>
-      <c r="G704" s="3"/>
-      <c r="H704" s="6"/>
-      <c r="I704" s="3"/>
-      <c r="J704" s="3"/>
-      <c r="K704" s="3"/>
-      <c r="L704" s="3"/>
-      <c r="M704" s="3"/>
+      <c r="B704" s="7"/>
+      <c r="C704" s="7"/>
+      <c r="D704" s="7"/>
+      <c r="E704" s="7"/>
+      <c r="F704" s="7"/>
+      <c r="G704" s="7"/>
+      <c r="H704" s="9"/>
+      <c r="I704" s="7"/>
+      <c r="J704" s="7"/>
+      <c r="K704" s="7"/>
+      <c r="L704" s="7"/>
+      <c r="M704" s="7"/>
       <c r="N704" s="3"/>
     </row>
-    <row r="705" spans="1:14">
+    <row r="705" ht="15" spans="1:14">
       <c r="A705" s="3"/>
-      <c r="B705" s="3"/>
-      <c r="C705" s="3"/>
-      <c r="D705" s="3"/>
-      <c r="E705" s="3"/>
-      <c r="F705" s="3"/>
-      <c r="G705" s="3"/>
-      <c r="H705" s="6"/>
-      <c r="I705" s="3"/>
-      <c r="J705" s="3"/>
-      <c r="K705" s="3"/>
-      <c r="L705" s="3"/>
-      <c r="M705" s="3"/>
+      <c r="B705" s="7"/>
+      <c r="C705" s="7"/>
+      <c r="D705" s="7"/>
+      <c r="E705" s="7"/>
+      <c r="F705" s="7"/>
+      <c r="G705" s="7"/>
+      <c r="H705" s="9"/>
+      <c r="I705" s="7"/>
+      <c r="J705" s="7"/>
+      <c r="K705" s="7"/>
+      <c r="L705" s="7"/>
+      <c r="M705" s="7"/>
       <c r="N705" s="3"/>
     </row>
-    <row r="706" spans="1:14">
+    <row r="706" ht="15" spans="1:14">
       <c r="A706" s="3"/>
-      <c r="B706" s="3"/>
-      <c r="C706" s="3"/>
-      <c r="D706" s="3"/>
-      <c r="E706" s="3"/>
-      <c r="F706" s="3"/>
-      <c r="G706" s="3"/>
-      <c r="H706" s="6"/>
-      <c r="I706" s="3"/>
-      <c r="J706" s="3"/>
-      <c r="K706" s="3"/>
-      <c r="L706" s="3"/>
-      <c r="M706" s="3"/>
+      <c r="B706" s="7"/>
+      <c r="C706" s="7"/>
+      <c r="D706" s="7"/>
+      <c r="E706" s="7"/>
+      <c r="F706" s="7"/>
+      <c r="G706" s="7"/>
+      <c r="H706" s="9"/>
+      <c r="I706" s="7"/>
+      <c r="J706" s="7"/>
+      <c r="K706" s="7"/>
+      <c r="L706" s="7"/>
+      <c r="M706" s="7"/>
       <c r="N706" s="3"/>
     </row>
-    <row r="707" spans="1:14">
+    <row r="707" ht="15" spans="1:14">
       <c r="A707" s="3"/>
-      <c r="B707" s="3"/>
-      <c r="C707" s="3"/>
-      <c r="D707" s="3"/>
-      <c r="E707" s="3"/>
-      <c r="F707" s="3"/>
-      <c r="G707" s="3"/>
-      <c r="H707" s="6"/>
-      <c r="I707" s="3"/>
-      <c r="J707" s="3"/>
-      <c r="K707" s="3"/>
-      <c r="L707" s="3"/>
-      <c r="M707" s="3"/>
+      <c r="B707" s="7"/>
+      <c r="C707" s="7"/>
+      <c r="D707" s="7"/>
+      <c r="E707" s="7"/>
+      <c r="F707" s="7"/>
+      <c r="G707" s="7"/>
+      <c r="H707" s="9"/>
+      <c r="I707" s="7"/>
+      <c r="J707" s="7"/>
+      <c r="K707" s="7"/>
+      <c r="L707" s="7"/>
+      <c r="M707" s="7"/>
       <c r="N707" s="3"/>
     </row>
-    <row r="708" spans="1:14">
+    <row r="708" ht="15" spans="1:14">
       <c r="A708" s="3"/>
-      <c r="B708" s="3"/>
-      <c r="C708" s="3"/>
-      <c r="D708" s="3"/>
-      <c r="E708" s="3"/>
-      <c r="F708" s="3"/>
-      <c r="G708" s="3"/>
-      <c r="H708" s="6"/>
-      <c r="I708" s="3"/>
-      <c r="J708" s="3"/>
-      <c r="K708" s="3"/>
-      <c r="L708" s="3"/>
-      <c r="M708" s="3"/>
+      <c r="B708" s="7"/>
+      <c r="C708" s="7"/>
+      <c r="D708" s="7"/>
+      <c r="E708" s="7"/>
+      <c r="F708" s="7"/>
+      <c r="G708" s="7"/>
+      <c r="H708" s="9"/>
+      <c r="I708" s="7"/>
+      <c r="J708" s="7"/>
+      <c r="K708" s="7"/>
+      <c r="L708" s="7"/>
+      <c r="M708" s="7"/>
       <c r="N708" s="3"/>
     </row>
-    <row r="709" spans="1:14">
+    <row r="709" ht="15" spans="1:14">
       <c r="A709" s="3"/>
-      <c r="B709" s="3"/>
-      <c r="C709" s="3"/>
-      <c r="D709" s="3"/>
-      <c r="E709" s="3"/>
-      <c r="F709" s="3"/>
-      <c r="G709" s="3"/>
-      <c r="H709" s="6"/>
-      <c r="I709" s="3"/>
-      <c r="J709" s="3"/>
-      <c r="K709" s="3"/>
-      <c r="L709" s="3"/>
-      <c r="M709" s="3"/>
+      <c r="B709" s="7"/>
+      <c r="C709" s="7"/>
+      <c r="D709" s="7"/>
+      <c r="E709" s="7"/>
+      <c r="F709" s="7"/>
+      <c r="G709" s="7"/>
+      <c r="H709" s="9"/>
+      <c r="I709" s="7"/>
+      <c r="J709" s="7"/>
+      <c r="K709" s="7"/>
+      <c r="L709" s="7"/>
+      <c r="M709" s="7"/>
       <c r="N709" s="3"/>
     </row>
-    <row r="710" spans="1:14">
+    <row r="710" ht="15" spans="1:14">
       <c r="A710" s="3"/>
-      <c r="B710" s="3"/>
-      <c r="C710" s="3"/>
-      <c r="D710" s="3"/>
-      <c r="E710" s="3"/>
-      <c r="F710" s="3"/>
-      <c r="G710" s="3"/>
-      <c r="H710" s="6"/>
-      <c r="I710" s="3"/>
-      <c r="J710" s="3"/>
-      <c r="K710" s="3"/>
-      <c r="L710" s="3"/>
-      <c r="M710" s="3"/>
+      <c r="B710" s="7"/>
+      <c r="C710" s="7"/>
+      <c r="D710" s="7"/>
+      <c r="E710" s="7"/>
+      <c r="F710" s="7"/>
+      <c r="G710" s="7"/>
+      <c r="H710" s="9"/>
+      <c r="I710" s="7"/>
+      <c r="J710" s="7"/>
+      <c r="K710" s="7"/>
+      <c r="L710" s="7"/>
+      <c r="M710" s="7"/>
       <c r="N710" s="3"/>
     </row>
     <row r="711" spans="1:14">

--- a/database/CFTCopi.xlsx
+++ b/database/CFTCopi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,8 +47,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -110,42 +110,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,6 +139,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -181,22 +157,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,6 +174,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,6 +208,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,19 +241,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,43 +259,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,7 +277,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,19 +295,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,55 +343,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,7 +367,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,26 +435,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,6 +483,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -501,33 +527,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,7 +1059,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K714" sqref="K714"/>
+      <selection pane="bottomRight" activeCell="D710" sqref="D710"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1068,7 +1068,7 @@
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="9.875"/>
+    <col min="5" max="5" width="11.125"/>
     <col min="9" max="9" width="9.875"/>
     <col min="11" max="11" width="9.875"/>
     <col min="15" max="15" width="9.875"/>
@@ -29964,7 +29964,7 @@
     </row>
     <row r="699" ht="15" spans="1:14">
       <c r="A699" s="10">
-        <f>A698+7</f>
+        <f t="shared" ref="A699:A705" si="0">A698+7</f>
         <v>43753</v>
       </c>
       <c r="B699" s="7">
@@ -30007,7 +30007,7 @@
     </row>
     <row r="700" ht="15" spans="1:14">
       <c r="A700" s="10">
-        <f>A699+7</f>
+        <f t="shared" si="0"/>
         <v>43760</v>
       </c>
       <c r="B700" s="7">
@@ -30050,7 +30050,7 @@
     </row>
     <row r="701" ht="15" spans="1:14">
       <c r="A701" s="10">
-        <f>A700+7</f>
+        <f t="shared" si="0"/>
         <v>43767</v>
       </c>
       <c r="B701" s="7">
@@ -30093,7 +30093,7 @@
     </row>
     <row r="702" ht="15" spans="1:14">
       <c r="A702" s="10">
-        <f>A701+7</f>
+        <f t="shared" si="0"/>
         <v>43774</v>
       </c>
       <c r="B702" s="7">
@@ -30135,55 +30135,136 @@
       <c r="N702" s="3"/>
     </row>
     <row r="703" ht="15" spans="1:14">
-      <c r="A703" s="3"/>
-      <c r="B703" s="7"/>
-      <c r="C703" s="7"/>
-      <c r="D703" s="7"/>
-      <c r="E703" s="7"/>
-      <c r="F703" s="7"/>
-      <c r="G703" s="7"/>
-      <c r="H703" s="9"/>
-      <c r="I703" s="7"/>
-      <c r="J703" s="7"/>
-      <c r="K703" s="7"/>
-      <c r="L703" s="7"/>
-      <c r="M703" s="7"/>
+      <c r="A703" s="10">
+        <f t="shared" si="0"/>
+        <v>43781</v>
+      </c>
+      <c r="B703" s="7">
+        <v>1610507</v>
+      </c>
+      <c r="C703" s="7">
+        <v>134274</v>
+      </c>
+      <c r="D703" s="7">
+        <v>254810</v>
+      </c>
+      <c r="E703" s="7">
+        <v>413129</v>
+      </c>
+      <c r="F703" s="7">
+        <v>75754</v>
+      </c>
+      <c r="G703" s="7">
+        <v>72034</v>
+      </c>
+      <c r="H703" s="9">
+        <v>302398</v>
+      </c>
+      <c r="I703" s="7">
+        <v>56496</v>
+      </c>
+      <c r="J703" s="7">
+        <v>80340</v>
+      </c>
+      <c r="K703" s="7">
+        <v>743089</v>
+      </c>
+      <c r="L703" s="7">
+        <v>101227</v>
+      </c>
+      <c r="M703" s="7">
+        <v>75767</v>
+      </c>
       <c r="N703" s="3"/>
     </row>
     <row r="704" ht="15" spans="1:14">
-      <c r="A704" s="3"/>
-      <c r="B704" s="7"/>
-      <c r="C704" s="7"/>
-      <c r="D704" s="7"/>
-      <c r="E704" s="7"/>
-      <c r="F704" s="7"/>
-      <c r="G704" s="7"/>
-      <c r="H704" s="9"/>
-      <c r="I704" s="7"/>
-      <c r="J704" s="7"/>
-      <c r="K704" s="7"/>
-      <c r="L704" s="7"/>
-      <c r="M704" s="7"/>
+      <c r="A704" s="10">
+        <f t="shared" si="0"/>
+        <v>43788</v>
+      </c>
+      <c r="B704" s="7">
+        <v>1641549</v>
+      </c>
+      <c r="C704" s="7">
+        <v>132724</v>
+      </c>
+      <c r="D704" s="7">
+        <v>271539</v>
+      </c>
+      <c r="E704" s="7">
+        <v>388983</v>
+      </c>
+      <c r="F704" s="7">
+        <v>76332</v>
+      </c>
+      <c r="G704" s="7">
+        <v>76510</v>
+      </c>
+      <c r="H704" s="9">
+        <v>286418</v>
+      </c>
+      <c r="I704" s="7">
+        <v>53126</v>
+      </c>
+      <c r="J704" s="7">
+        <v>79703</v>
+      </c>
+      <c r="K704" s="7">
+        <v>765303</v>
+      </c>
+      <c r="L704" s="7">
+        <v>93397</v>
+      </c>
+      <c r="M704" s="7">
+        <v>81721</v>
+      </c>
       <c r="N704" s="3"/>
     </row>
     <row r="705" ht="15" spans="1:14">
-      <c r="A705" s="3"/>
-      <c r="B705" s="7"/>
-      <c r="C705" s="7"/>
-      <c r="D705" s="7"/>
-      <c r="E705" s="7"/>
-      <c r="F705" s="7"/>
-      <c r="G705" s="7"/>
-      <c r="H705" s="9"/>
-      <c r="I705" s="7"/>
-      <c r="J705" s="7"/>
-      <c r="K705" s="7"/>
-      <c r="L705" s="7"/>
-      <c r="M705" s="7"/>
+      <c r="A705" s="10">
+        <f t="shared" si="0"/>
+        <v>43795</v>
+      </c>
+      <c r="B705" s="7">
+        <v>1505976</v>
+      </c>
+      <c r="C705" s="7">
+        <v>139042</v>
+      </c>
+      <c r="D705" s="7">
+        <v>255989</v>
+      </c>
+      <c r="E705" s="7">
+        <v>357978</v>
+      </c>
+      <c r="F705" s="7">
+        <v>78142</v>
+      </c>
+      <c r="G705" s="7">
+        <v>69783</v>
+      </c>
+      <c r="H705" s="9">
+        <v>260836</v>
+      </c>
+      <c r="I705" s="7">
+        <v>56602</v>
+      </c>
+      <c r="J705" s="7">
+        <v>73622</v>
+      </c>
+      <c r="K705" s="7">
+        <v>807569</v>
+      </c>
+      <c r="L705" s="7">
+        <v>73939</v>
+      </c>
+      <c r="M705" s="7">
+        <v>118595</v>
+      </c>
       <c r="N705" s="3"/>
     </row>
     <row r="706" ht="15" spans="1:14">
-      <c r="A706" s="3"/>
+      <c r="A706" s="10"/>
       <c r="B706" s="7"/>
       <c r="C706" s="7"/>
       <c r="D706" s="7"/>
